--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="del_windows_resource" sheetId="20" r:id="rId9"/>
     <sheet name="query_windows_resource" sheetId="21" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -136,10 +136,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>该名称的资源已经存在</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源IP冲突</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -479,9 +475,6 @@
   </si>
   <si>
     <t>windows2</t>
-  </si>
-  <si>
-    <t>windows3</t>
   </si>
   <si>
     <t>Rdp</t>
@@ -799,10 +792,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cyyb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>【地址】不能为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -816,6 +805,18 @@
   </si>
   <si>
     <t>172.16.10.22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立主机yy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>域内主机yy,该名称的资源已经存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>windos3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1331,35 +1332,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="56.5" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="12.125" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="17" width="17.625" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="18.625" customWidth="1"/>
-    <col min="20" max="20" width="42.375" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="56.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,19 +1383,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1406,101 +1407,101 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="14.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R2" s="5">
         <v>389</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="14.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.6">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1515,54 +1516,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1577,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -1595,78 +1596,78 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="14.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.6">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1683,168 +1684,168 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.25" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17.399999999999999">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
+      <c r="A8" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1858,32 +1859,32 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="18.875" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="34.625" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1906,19 +1907,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1930,39 +1931,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.6">
+      <c r="A2" s="9" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.25">
-      <c r="A2" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1989,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2005,24 +2006,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="57.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,16 +2043,16 @@
         <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -2060,13 +2061,13 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2075,25 +2076,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2102,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -2116,42 +2117,42 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2160,27 +2161,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2189,10 +2190,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -2200,16 +2201,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2218,24 +2219,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2247,27 +2248,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2276,21 +2277,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2305,85 +2306,85 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.6">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6">
+      <c r="A13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2392,36 +2393,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2442,18 +2443,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="44.125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="8" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2461,59 +2462,59 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2525,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2537,12 +2538,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2554,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2566,12 +2567,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2583,10 +2584,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2595,12 +2596,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2609,13 +2610,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2624,7 +2625,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2641,16 +2642,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,30 +2659,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2698,15 +2699,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2714,24 +2715,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2748,19 +2749,19 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,36 +2769,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2809,50 +2810,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2861,102 +2862,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6">
+      <c r="A7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="9" t="s">
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6">
+      <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2965,24 +2966,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6">
+      <c r="A9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2991,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3008,50 +3009,50 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -3059,12 +3060,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3072,12 +3073,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3087,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3104,15 +3105,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
-    <col min="4" max="4" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3120,66 +3121,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="15.6">
       <c r="A2" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6">
+      <c r="A3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
